--- a/report/reliability/comb/Campus Arapiraca (Arapiraca, Palmeira dos Índios e Penedo)-Graduação (licenciatura).xlsx
+++ b/report/reliability/comb/Campus Arapiraca (Arapiraca, Palmeira dos Índios e Penedo)-Graduação (licenciatura).xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7584392532160944</v>
+        <v>0.7200110174158086</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7754304264267867</v>
+        <v>0.7659331232859525</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.8844340876539923</v>
+        <v>0.8846958952553862</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.2234498971440335</v>
+        <v>0.20109551995665442</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.4529629908834667</v>
+        <v>3.2722832638198103</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.020202100902993594</v>
+        <v>0.022415194798161637</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.229607250755287</v>
+        <v>1.6806878921682546</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.6971137322692124</v>
+        <v>0.5776056122642479</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.18560369004760702</v>
+        <v>0.10934147346306027</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7207866874718554</v>
+        <v>0.717709290024065</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7376132100212944</v>
+        <v>0.7554654679362671</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8555690147398683</v>
+        <v>0.8795038323675668</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.20354307342843198</v>
+        <v>0.20473985552219331</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>2.811167475623131</v>
+        <v>3.0894019816365685</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.023482810532811177</v>
+        <v>0.02301678657187081</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.04323705321082936</v>
+        <v>0.06006868005663588</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.16221707482997597</v>
+        <v>0.125808086175063</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7281095203900184</v>
+        <v>0.6833316836382386</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7463730307511832</v>
+        <v>0.7341387527732843</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8631955630411515</v>
+        <v>0.8661712564885582</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.2110622479774795</v>
+        <v>0.1870668031554469</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>2.942798366284798</v>
+        <v>2.76136052332306</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.022896000622389223</v>
+        <v>0.025384421887034186</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.04430351073564832</v>
+        <v>0.06027472910300995</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.1760780374805756</v>
+        <v>0.10191072824032602</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7284064682752894</v>
+        <v>0.6935066355105696</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7421779022274838</v>
+        <v>0.7420185679654514</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8578139130489699</v>
+        <v>0.8676855424157786</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.20741533484030938</v>
+        <v>0.19334498650827983</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>2.878643485719864</v>
+        <v>2.8762479613884815</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.022822331430609036</v>
+        <v>0.02455482861005166</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.043248934025783906</v>
+        <v>0.059548424466556546</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.1765302521441551</v>
+        <v>0.10372384318581429</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7312706580727839</v>
+        <v>0.7060797414757761</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7483795668927652</v>
+        <v>0.7363497764146409</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8640270060748187</v>
+        <v>0.8614918304990044</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.21283733720461265</v>
+        <v>0.18880025436763762</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>2.9742400394558683</v>
+        <v>2.792904046888629</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.022610692515597473</v>
+        <v>0.02376770186117783</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.04404957463456189</v>
+        <v>0.048333516459239965</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.1765302521441551</v>
+        <v>0.1065749193362292</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7410092572514119</v>
+        <v>0.6893756130108161</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7610100370349601</v>
+        <v>0.7387507514882855</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8447392746786169</v>
+        <v>0.8623756818288704</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.22449338333756008</v>
+        <v>0.19070728052802732</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.1842761411125977</v>
+        <v>2.827762206769219</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.021626713728734644</v>
+        <v>0.02465765318946428</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.04163872275208351</v>
+        <v>0.04784701024225749</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.18241733598895143</v>
+        <v>0.10934147346306027</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7410266468435147</v>
+        <v>0.6890883565920451</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7603202208470582</v>
+        <v>0.7381866467427829</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8444505552672279</v>
+        <v>0.8617514507886133</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.22383440743604624</v>
+        <v>0.19025689486596833</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.1722334839181014</v>
+        <v>2.8195148855435033</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.02161302161073905</v>
+        <v>0.0246728880064283</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.041728122382171516</v>
+        <v>0.04784500518246162</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.18241733598895143</v>
+        <v>0.10934147346306027</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7593678812003343</v>
+        <v>0.7181557907771463</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.7814209199343307</v>
+        <v>0.7680130984100014</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.873397414489852</v>
+        <v>0.8844586787257394</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.24528318675954952</v>
+        <v>0.21622867488181757</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>3.575003242302796</v>
+        <v>3.3105881976360356</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.020134029869481256</v>
+        <v>0.022967551108062458</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.044593419932393075</v>
+        <v>0.05785760827028519</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.20040715979916582</v>
+        <v>0.128858588295396</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.769813162764168</v>
+        <v>0.7107460619150516</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.7798846407508041</v>
+        <v>0.7600824204402246</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8725702875063559</v>
+        <v>0.8716498664277208</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.24362612358868338</v>
+        <v>0.20886587456891578</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>3.5430723390269403</v>
+        <v>3.16809806865716</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.019063010042094222</v>
+        <v>0.0229253027330377</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.044846507379577495</v>
+        <v>0.057661285141324556</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.20040715979916582</v>
+        <v>0.128858588295396</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7486611746584587</v>
+        <v>0.7271541629020433</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7672218720281608</v>
+        <v>0.7637359874662147</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8881582605080863</v>
+        <v>0.8786669565304664</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.23055057034670431</v>
+        <v>0.2122134844963895</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.295936257898668</v>
+        <v>3.232553190287506</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.021190907826254282</v>
+        <v>0.021330041101237342</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.05262804008523837</v>
+        <v>0.058184143917251595</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.1887900441062626</v>
+        <v>0.128858588295396</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7545111811339545</v>
+        <v>0.7014249457902595</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7721461295608631</v>
+        <v>0.7563717039016689</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8909152756718692</v>
+        <v>0.8876440347893315</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.2355153314269642</v>
+        <v>0.2055407457030664</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.3887777638919445</v>
+        <v>3.104613528128068</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.020742654248436267</v>
+        <v>0.024036185194522487</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.05158179798725022</v>
+        <v>0.0657516297494278</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.1887900441062626</v>
+        <v>0.1049035571219198</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7408221631998381</v>
+        <v>0.7134116516211707</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7588807504105858</v>
+        <v>0.7634288828015198</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8601141998971844</v>
+        <v>0.8912222650132231</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.22246787635819656</v>
+        <v>0.2119292219529542</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.1473254487264417</v>
+        <v>3.2270587037090097</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.021729297932609835</v>
+        <v>0.023000801605265884</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.04656461284584267</v>
+        <v>0.06493982754968333</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.1765302521441551</v>
+        <v>0.10934147346306027</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7389413757585165</v>
+        <v>0.6969794118045728</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7570750485245307</v>
+        <v>0.7541541420928598</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8595312716353627</v>
+        <v>0.8641294068814558</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.22076989302386385</v>
+        <v>0.2035885967050792</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.116497683445994</v>
+        <v>3.0675893769896896</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.021889809142797714</v>
+        <v>0.02421144613220226</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.047059452736166324</v>
+        <v>0.059984558077199816</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.1765302521441551</v>
+        <v>0.10775463327233471</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.6935762610367194</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7511202358586563</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8629797581471355</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.20095908618073158</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>3.0180044506634958</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.024493163854067225</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.06062742773026952</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.1049035571219198</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>331.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6841033380075655</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.7067746624043276</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6987329570318371</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.595608706359214</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.093655589123867</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.1986061055130717</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>331.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.6245724738240785</v>
+        <v>0.3843192614453197</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.642574969677885</v>
+        <v>0.47628723916380655</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.6198262657895958</v>
+        <v>0.423953132395597</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.5143375001217299</v>
+        <v>0.35809490139356936</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.5649546827794563</v>
+        <v>0.945619335347432</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.3065725163053021</v>
+        <v>0.227110626069095</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>331.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.6407141973599909</v>
+        <v>0.6140222589336443</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6737127895647779</v>
+        <v>0.6513953954953127</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6617256201654693</v>
+        <v>0.6294611239725673</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.5587612747252133</v>
+        <v>0.4989298134208783</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.3353474320241694</v>
+        <v>3.093655589123867</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.0324675283547768</v>
+        <v>1.1986061055130717</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>331.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.6015093716953247</v>
+        <v>0.5538830507604925</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6274190264023828</v>
+        <v>0.589189892494921</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6030403800303086</v>
+        <v>0.5648987520407197</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.4897659783354879</v>
+        <v>0.4150949967268555</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.5770392749244713</v>
+        <v>3.5649546827794563</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.277764973990067</v>
+        <v>1.3065725163053021</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>331.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.5309156950633218</v>
+        <v>0.5945209706741227</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.5278981846850888</v>
+        <v>0.6342200123437032</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.5523760353186256</v>
+        <v>0.6648912727006647</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.4021660885261847</v>
+        <v>0.5612285447728167</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.5619335347432024</v>
+        <v>0.16314199395770393</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.3274267228965566</v>
+        <v>0.370054591903329</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>331.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.5373011118843992</v>
+        <v>0.5797936525283983</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5335246068562136</v>
+        <v>0.615324813705005</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.5583589124121392</v>
+        <v>0.6468977934425014</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.40203181284162454</v>
+        <v>0.4433642083877804</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.5921450151057401</v>
+        <v>0.5619335347432024</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.396900873947098</v>
+        <v>1.3274267228965566</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>331.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.39474221641340895</v>
+        <v>0.5860621686542478</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.3503921322815122</v>
+        <v>0.6197873254027398</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.29309396814062894</v>
+        <v>0.651977197339429</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.24374601566658666</v>
+        <v>0.4426890341164936</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.622356495468278</v>
+        <v>0.5921450151057401</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.3704617248185116</v>
+        <v>1.396900873947098</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>331.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.4184225650766283</v>
+        <v>0.3077499573742184</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.3645403536991661</v>
+        <v>0.3624537069170001</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.308887265343364</v>
+        <v>0.2981155630244421</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.22363617589672613</v>
+        <v>0.27042443864372256</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.7583081570996977</v>
+        <v>0.8972809667673716</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.7569469495517844</v>
+        <v>0.30405119619788634</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>331.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.4904778076698976</v>
+        <v>0.45617223023728415</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.47618113220318836</v>
+        <v>0.435405812839302</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.3755988190704665</v>
+        <v>0.40144211870985647</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.3417681309545223</v>
+        <v>0.2939358709180333</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.0845921450151057</v>
+        <v>2.622356495468278</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.4518863591262576</v>
+        <v>1.3704617248185116</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>331.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.4379705322047817</v>
+        <v>0.4554669224463231</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.43379135474373787</v>
+        <v>0.4022370205813241</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.3244406075226029</v>
+        <v>0.35413575957582283</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.2887158021508882</v>
+        <v>0.2414284583623756</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.268882175226586</v>
+        <v>2.7583081570996977</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.3959568092702515</v>
+        <v>1.7569469495517844</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>331.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.5245909534681079</v>
+        <v>0.5242920060019263</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.545192227381155</v>
+        <v>0.46835185821848785</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.5233449505269638</v>
+        <v>0.37336756757713396</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.4067370168169352</v>
+        <v>0.36223900890644445</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>1.755287009063444</v>
+        <v>1.0845921450151057</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.2175213864516252</v>
+        <v>1.4518863591262576</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>331.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.5379621347826338</v>
+        <v>0.44446611664943686</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.5596898304900743</v>
+        <v>0.40505355101772583</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.5386212829160577</v>
+        <v>0.2997530368753475</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.43165800985360403</v>
+        <v>0.2773149994521909</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.268882175226586</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.3959568092702515</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>331.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.5252903202798656</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.4876941430048522</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.46424599940439654</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.39251682052713716</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>1.755287009063444</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.2175213864516252</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>331.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.5449182865083606</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.5137478619899883</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.49222213170602014</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.4261635827788516</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>1.540785498489426</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.1257312717846641</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.054380664652567974</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.09667673716012085</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.00906344410876133</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.42900302114803623</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.36253776435045315</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.04833836858006042</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.054380664652567974</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.012084592145015106</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.0634441087613293</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.3564954682779456</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.21148036253776434</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.3021148036253776</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.021148036253776436</v>
+        <v>0.054380664652567974</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.06042296072507553</v>
+        <v>0.945619335347432</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.030211480362537766</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.4199395770392749</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.3867069486404834</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.08157099697885196</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.021148036253776436</v>
+        <v>0.054380664652567974</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.045317220543806644</v>
+        <v>0.09667673716012085</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.07250755287009064</v>
+        <v>0.00906344410876133</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.41389728096676737</v>
+        <v>0.42900302114803623</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.09063444108761329</v>
+        <v>0.36253776435045315</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.3564954682779456</v>
+        <v>0.04833836858006042</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.8368580060422961</v>
+        <v>0.054380664652567974</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.00906344410876133</v>
+        <v>0.012084592145015106</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.006042296072507553</v>
+        <v>0.0634441087613293</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.06646525679758308</v>
+        <v>0.3564954682779456</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.06646525679758308</v>
+        <v>0.21148036253776434</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.015105740181268883</v>
+        <v>0.3021148036253776</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.8368580060422961</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.0030211480362537764</v>
+        <v>0.16314199395770393</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.00906344410876133</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.06948640483383686</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.045317220543806644</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.03625377643504532</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.1027190332326284</v>
+        <v>0.8368580060422961</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.16314199395770393</v>
+        <v>0.00906344410876133</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.05740181268882175</v>
+        <v>0.006042296072507553</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.3957703927492447</v>
+        <v>0.06646525679758308</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.24773413897280966</v>
+        <v>0.06646525679758308</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.03323262839879154</v>
+        <v>0.015105740181268883</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.1027190332326284</v>
+        <v>0.8368580060422961</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.21148036253776434</v>
+        <v>0.0030211480362537764</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.1661631419939577</v>
+        <v>0.00906344410876133</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.13595166163141995</v>
+        <v>0.06948640483383686</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.11178247734138973</v>
+        <v>0.045317220543806644</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.2719033232628399</v>
+        <v>0.03625377643504532</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.5861027190332326</v>
+        <v>0.1027190332326284</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.09063444108761329</v>
+        <v>0.8972809667673716</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.054380664652567974</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.1903323262839879</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.07854984894259819</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.2084592145015106</v>
+        <v>0.1027190332326284</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.1027190332326284</v>
+        <v>0.16314199395770393</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.045317220543806644</v>
+        <v>0.05740181268882175</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.4984894259818731</v>
+        <v>0.3957703927492447</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.14501510574018128</v>
+        <v>0.24773413897280966</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.03323262839879154</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.22658610271903323</v>
+        <v>0.1027190332326284</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.14501510574018128</v>
+        <v>0.21148036253776434</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.3413897280966767</v>
+        <v>0.1661631419939577</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.22054380664652568</v>
+        <v>0.13595166163141995</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.06646525679758308</v>
+        <v>0.11178247734138973</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.2719033232628399</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.2628398791540785</v>
+        <v>0.5861027190332326</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.14803625377643503</v>
+        <v>0.09063444108761329</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.40483383685800606</v>
+        <v>0.054380664652567974</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.1540785498489426</v>
+        <v>0.1903323262839879</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.030211480362537766</v>
+        <v>0.07854984894259819</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.2084592145015106</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.1027190332326284</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.045317220543806644</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.4984894259818731</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.14501510574018128</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.22658610271903323</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.14501510574018128</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.3413897280966767</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.22054380664652568</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.06646525679758308</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.2628398791540785</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.14803625377643503</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.40483383685800606</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.1540785498489426</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.030211480362537766</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8697364057602739</v>
+        <v>0.885127456388804</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8738344418378121</v>
+        <v>0.9879252613960148</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8750728960006545</v>
+        <v>0.9823801510336961</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.6339039172243787</v>
+        <v>0.9646299523476692</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>6.926093416988518</v>
+        <v>81.81752779890051</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.01184982850978103</v>
+        <v>0.001763228491703538</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.392749244712991</v>
+        <v>0.4390735146022155</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>1.024795024866852</v>
+        <v>1.02160035589844</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.6367373881515073</v>
+        <v>0.9615292941707262</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8219901041431857</v>
+        <v>0.9852191360650078</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.829333655318514</v>
+        <v>0.9858693213253773</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7790601461950608</v>
+        <v>0.9721324303232984</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.6182907953375701</v>
+        <v>0.9721324303232985</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.859386054504748</v>
+        <v>69.76800930983552</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.016872472810541467</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.010865247734223513</v>
-      </c>
+        <v>0.001587672436559883</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.5937090690428491</v>
+        <v>0.9721324303232984</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8396787435093791</v>
+        <v>0.6450164247993679</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8476009298604152</v>
+        <v>0.9803873916420207</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.8052861965665734</v>
+        <v>0.961529294170726</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.6496031100098486</v>
+        <v>0.9615292941707261</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>5.561719826007362</v>
+        <v>49.987608672313954</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.015549515537772746</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.010305811129700507</v>
-      </c>
+        <v>0.006034771945438401</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.6797657072601653</v>
+        <v>0.9615292941707262</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8301392445801777</v>
+        <v>0.6637893272179134</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8308539199174058</v>
+        <v>0.979710592460838</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7799336697413972</v>
+        <v>0.9602281325489832</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6208314930387483</v>
+        <v>0.9602281325489834</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>4.912049510764295</v>
+        <v>48.28680140461646</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.016314622163331374</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.010149880018996485</v>
-      </c>
+        <v>0.006151611372380429</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.5937090690428491</v>
+        <v>0.9602281325489834</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.843049237662011</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8460577534888247</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.8048996659626416</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.6468902705113474</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>5.495942619152347</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.014690320482106707</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.011196316323467974</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.6797657072601653</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>331.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9748913944112998</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9856088074954759</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9727504752393981</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9676560938447187</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.16314199395770393</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.370054591903329</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>331.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8642580152951039</v>
+        <v>0.9921479818651273</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.865469029338749</v>
+        <v>0.9891856083220871</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.8206463293974644</v>
+        <v>0.982243672803112</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.7508339762005238</v>
+        <v>0.9758751373509124</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.093655589123867</v>
+        <v>0.5619335347432024</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.1986061055130717</v>
+        <v>1.3274267228965566</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>331.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8510751888816046</v>
+        <v>0.992936801930334</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8378963292151644</v>
+        <v>0.9896245346828578</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7728188639506746</v>
+        <v>0.9831924292147396</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.7119658682596649</v>
+        <v>0.9764641413257582</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.5649546827794563</v>
+        <v>0.5921450151057401</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.3065725163053021</v>
+        <v>1.396900873947098</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>331.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8474707345611617</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8632317659312857</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.8177775386654117</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.7465244009748747</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.3353474320241694</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.0324675283547768</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>331.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8423283794262435</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.840285175608619</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7757365938658898</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.7015660920080413</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.5770392749244713</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.277764973990067</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.8368580060422961</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.16314199395770393</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.8368580060422961</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.00906344410876133</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.006042296072507553</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.06646525679758308</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.06646525679758308</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.015105740181268883</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.054380664652567974</v>
+        <v>0.8368580060422961</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.09667673716012085</v>
+        <v>0.0030211480362537764</v>
       </c>
       <c r="D27" t="n" s="226">
         <v>0.00906344410876133</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.42900302114803623</v>
+        <v>0.06948640483383686</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.36253776435045315</v>
+        <v>0.045317220543806644</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.04833836858006042</v>
+        <v>0.03625377643504532</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.054380664652567974</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.012084592145015106</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.0634441087613293</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.3564954682779456</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.21148036253776434</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.3021148036253776</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.021148036253776436</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.06042296072507553</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.030211480362537766</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.4199395770392749</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.3867069486404834</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.08157099697885196</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.021148036253776436</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.045317220543806644</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.07250755287009064</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.41389728096676737</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.09063444108761329</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.3564954682779456</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.809274977934493</v>
+        <v>0.7048573594465182</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.8240344543348455</v>
+        <v>0.8345398172790056</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.7007300999356673</v>
+        <v>0.7827140954172599</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.7007300999356674</v>
+        <v>0.6270396328347273</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>4.682930690891632</v>
+        <v>5.043750124984696</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.01977809223450261</v>
+        <v>0.014851497961262736</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.690332326283988</v>
+        <v>2.092648539778449</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.4439099521198102</v>
+        <v>1.0296004591074763</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.7007300999356673</v>
+        <v>0.6484001123639724</v>
       </c>
     </row>
     <row r="7">
@@ -5950,22 +5947,24 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
+        <v>0.809274977934493</v>
+      </c>
+      <c r="C11" t="n" s="289">
+        <v>0.8240344543348455</v>
+      </c>
+      <c r="D11" t="n" s="290">
         <v>0.7007300999356673</v>
       </c>
-      <c r="C11" t="n" s="289">
-        <v>0.7007300999356673</v>
-      </c>
-      <c r="D11" t="n" s="290">
-        <v>0.49102267295585034</v>
-      </c>
       <c r="E11" t="n" s="291">
-        <v>0.7007300999356673</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.7007300999356673</v>
-      </c>
+        <v>0.7007300999356674</v>
+      </c>
+      <c r="F11" t="n" s="292">
+        <v>4.682930690891632</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.01977809223450261</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
         <v>0.7007300999356673</v>
       </c>
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.49102267295585034</v>
+        <v>0.3033222591362128</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.7007300999356673</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.49102267295585034</v>
-      </c>
+        <v>0.6945073302369207</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.5319886862045422</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.5319886862045422</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>2.2734009649905405</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.022149290092734957</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.7007300999356673</v>
+        <v>0.5319886862045423</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.430401715073248</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.7867023394388164</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.6484001123639722</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.6484001123639724</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>3.6882839566501184</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.020963168875026524</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.6484001123639724</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>331.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.9008897447310231</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9221524006192435</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7719302989556497</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.7007300999356673</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.622356495468278</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.3704617248185116</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>331.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9409418942478478</v>
+        <v>0.6887249687216777</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9221524006192435</v>
+        <v>0.8384723059907884</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.7719302989556497</v>
+        <v>0.7009615942339767</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.7007300999356674</v>
+        <v>0.6313702018291405</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.8972809667673716</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.30405119619788634</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>331.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.9060971633484729</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.9033621102221122</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.8459007366051793</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.7377944818594643</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.622356495468278</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.3704617248185116</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>331.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9320840596884936</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8585958937566561</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.7537677655217966</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.7081100473811126</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>2.7583081570996977</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.7569469495517844</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.1027190332326284</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.8972809667673716</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.1027190332326284</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.16314199395770393</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.05740181268882175</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.3957703927492447</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.24773413897280966</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.03323262839879154</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.1027190332326284</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.21148036253776434</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.1661631419939577</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.13595166163141995</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.11178247734138973</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.2719033232628399</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.8900476736021288</v>
+        <v>0.728869754261104</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.8915638316031269</v>
+        <v>0.858528046399783</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.8043438648276808</v>
+        <v>0.8067813324940034</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.8043438648276808</v>
+        <v>0.6691859570643373</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>8.222015262841365</v>
+        <v>6.068538848525983</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.011983015447882318</v>
+        <v>0.01235656525618683</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>1.648036253776435</v>
+        <v>2.5347432024169185</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.1129352721042685</v>
+        <v>0.8310380670414581</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.8043438648276807</v>
+        <v>0.6553021693515231</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.8043438648276807</v>
+        <v>0.8436949662768496</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.8043438648276807</v>
+        <v>0.8455074908780678</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6469690528859304</v>
+        <v>0.7323629076823825</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.8043438648276807</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.8043438648276807</v>
-      </c>
+        <v>0.7323629076823823</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>5.472805741091017</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.017046067061635455</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.8043438648276807</v>
+        <v>0.7323629076823824</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6469690528859304</v>
+        <v>0.36217303822937597</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.8043438648276807</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6469690528859304</v>
-      </c>
+        <v>0.791761385304343</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.6553021693515233</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.6553021693515231</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>3.802183310052802</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.018326092223229826</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.8043438648276807</v>
+        <v>0.6553021693515231</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.36970474967907574</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.7653503940436939</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.6198927941591061</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.6198927941591061</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>3.2616734680824875</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.02042173567005758</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.6198927941591061</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>331.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9537825251697941</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9498273171549871</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8518547169892327</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.8043438648276808</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>1.755287009063444</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.2175213864516252</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>331.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9457140868998823</v>
+        <v>0.7325447496300191</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9498273171549871</v>
+        <v>0.8590158896117203</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8518547169892327</v>
+        <v>0.7342876069707402</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.8043438648276808</v>
+        <v>0.6858028226007478</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>1.540785498489426</v>
+        <v>0.945619335347432</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.1257312717846641</v>
+        <v>0.227110626069095</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>331.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.9210470953131241</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8881107143423788</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.8082998563631351</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.7490199156562654</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.093655589123867</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.1986061055130717</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>331.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9358629676082676</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.9014797734425165</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.8364174602091285</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.7598025539253677</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>3.5649546827794563</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.3065725163053021</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.22658610271903323</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.14501510574018128</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.3413897280966767</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.22054380664652568</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.06646525679758308</v>
-      </c>
-      <c r="G23" t="n" s="459">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.054380664652567974</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.945619335347432</v>
+      </c>
+      <c r="D25" t="n" s="456">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.2628398791540785</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.14803625377643503</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.40483383685800606</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.1540785498489426</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.030211480362537766</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.054380664652567974</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.09667673716012085</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.00906344410876133</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.42900302114803623</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.36253776435045315</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.04833836858006042</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.054380664652567974</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.012084592145015106</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.0634441087613293</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.3564954682779456</v>
+      </c>
+      <c r="F27" t="n" s="458">
+        <v>0.21148036253776434</v>
+      </c>
+      <c r="G27" t="n" s="459">
+        <v>0.3021148036253776</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9852191360650078</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9858693213253773</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9721324303232984</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9721324303232985</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>69.76800930983552</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.001587672436559883</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.5770392749244713</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.352646674385271</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9721324303232984</v>
+      <c r="A6" t="n" s="491">
+        <v>0.4921512646791599</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.49243754531200157</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.3266448721780587</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.3266448721780586</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>0.9702008900849565</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.05577959782040051</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>1.6767371601208458</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.1598208797612208</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.32664487217805865</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9721324303232985</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9721324303232985</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9450414620862827</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9721324303232985</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9721324303232985</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9721324303232985</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.32664487217805865</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.32664487217805865</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.10669687252022053</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.32664487217805865</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.32664487217805865</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.32664487217805865</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9450414620862827</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9721324303232985</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9450414620862827</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9721324303232985</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.10669687252022053</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.32664487217805865</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.10669687252022053</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.32664487217805865</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>331.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9926462746185755</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9930086682208011</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9790745355716236</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9721324303232985</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.5619335347432024</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.3274267228965566</v>
+      <c r="C17" t="n" s="545">
+        <v>0.8224841119644326</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8144460915794424</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.4654791857313705</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.3266448721780586</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.0845921450151057</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.4518863591262576</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>331.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9933619366542694</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9930086682208011</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9790745355716237</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9721324303232984</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.5921450151057401</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.396900873947098</v>
+      <c r="C18" t="n" s="545">
+        <v>0.806248652744183</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8144460915794424</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.46547918573137015</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.3266448721780587</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.268882175226586</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.3959568092702515</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.8368580060422961</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.00906344410876133</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.006042296072507553</v>
-      </c>
-      <c r="E23" t="n" s="571">
-        <v>0.06646525679758308</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.06646525679758308</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.015105740181268883</v>
-      </c>
-      <c r="H23" t="n" s="574">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.5861027190332326</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.09063444108761329</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.054380664652567974</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.1903323262839879</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.07854984894259819</v>
+      </c>
+      <c r="G23" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.8368580060422961</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.0030211480362537764</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.00906344410876133</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.06948640483383686</v>
-      </c>
-      <c r="F24" t="n" s="572">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.2084592145015106</v>
+      </c>
+      <c r="C24" t="n" s="570">
+        <v>0.1027190332326284</v>
+      </c>
+      <c r="D24" t="n" s="571">
         <v>0.045317220543806644</v>
       </c>
-      <c r="G24" t="n" s="573">
-        <v>0.03625377643504532</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="E24" t="n" s="572">
+        <v>0.4984894259818731</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.14501510574018128</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.4921512646791599</v>
+        <v>0.8900476736021288</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.49243754531200157</v>
+        <v>0.8915638316031269</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.3266448721780587</v>
+        <v>0.8043438648276808</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.3266448721780586</v>
+        <v>0.8043438648276808</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>0.9702008900849565</v>
+        <v>8.222015262841365</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.05577959782040051</v>
+        <v>0.011983015447882318</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>1.6767371601208458</v>
+        <v>1.648036253776435</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.1598208797612208</v>
+        <v>1.1129352721042685</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.32664487217805865</v>
+        <v>0.8043438648276807</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.32664487217805865</v>
+        <v>0.8043438648276807</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.32664487217805865</v>
+        <v>0.8043438648276807</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.10669687252022053</v>
+        <v>0.6469690528859304</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.32664487217805865</v>
+        <v>0.8043438648276807</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.32664487217805865</v>
+        <v>0.8043438648276807</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.32664487217805865</v>
+        <v>0.8043438648276807</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.10669687252022053</v>
+        <v>0.6469690528859304</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.32664487217805865</v>
+        <v>0.8043438648276807</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.10669687252022053</v>
+        <v>0.6469690528859304</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.32664487217805865</v>
+        <v>0.8043438648276807</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>331.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8224841119644326</v>
+        <v>0.9537825251697941</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8144460915794424</v>
+        <v>0.9498273171549871</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.4654791857313705</v>
+        <v>0.8518547169892327</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.3266448721780586</v>
+        <v>0.8043438648276808</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.0845921450151057</v>
+        <v>1.755287009063444</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.4518863591262576</v>
+        <v>1.2175213864516252</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>331.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.806248652744183</v>
+        <v>0.9457140868998823</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8144460915794424</v>
+        <v>0.9498273171549871</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.46547918573137015</v>
+        <v>0.8518547169892327</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.3266448721780587</v>
+        <v>0.8043438648276808</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.268882175226586</v>
+        <v>1.540785498489426</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.3959568092702515</v>
+        <v>1.1257312717846641</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.5861027190332326</v>
+        <v>0.22658610271903323</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.09063444108761329</v>
+        <v>0.14501510574018128</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.054380664652567974</v>
+        <v>0.3413897280966767</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.1903323262839879</v>
+        <v>0.22054380664652568</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.07854984894259819</v>
+        <v>0.06646525679758308</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.2084592145015106</v>
+        <v>0.2628398791540785</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.1027190332326284</v>
+        <v>0.14803625377643503</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.045317220543806644</v>
+        <v>0.40483383685800606</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.4984894259818731</v>
+        <v>0.1540785498489426</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.14501510574018128</v>
+        <v>0.030211480362537766</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.7919834082835376</v>
+        <v>0.7541112038853041</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.7997542589967328</v>
+        <v>0.7949614242582758</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.8921635271908582</v>
+        <v>0.8933041481282367</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.28540108794627267</v>
+        <v>0.27938995612836</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>3.9938640142348096</v>
+        <v>3.877131029527071</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.017608546263932753</v>
+        <v>0.019814026015893462</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.1374622356495467</v>
+        <v>1.5570996978851963</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.754773633088687</v>
+        <v>0.6566000944026779</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.2146253151294453</v>
+        <v>0.20040715979916582</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.7561563235912214</v>
+        <v>0.7392621727646835</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.7636632896970956</v>
+        <v>0.7626008082753774</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8617416714089075</v>
+        <v>0.866346776205785</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.26417994211580587</v>
+        <v>0.2630389449291518</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>3.2312512462339678</v>
+        <v>3.212314257413208</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.0207911047396058</v>
+        <v>0.021473171507157936</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.04330786822635088</v>
+        <v>0.04809199357282967</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.20327597061754182</v>
+        <v>0.20146977122049023</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.7628437426095238</v>
+        <v>0.7193605280100565</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.7714191170865442</v>
+        <v>0.7657641661734111</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.8697991544863031</v>
+        <v>0.8669478863095894</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.27271663796207</v>
+        <v>0.26645593718215427</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>3.3748190454694096</v>
+        <v>3.269201614729567</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.020255345062441664</v>
+        <v>0.022267338242200865</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.044693736243418575</v>
+        <v>0.04663391163562716</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.21095709246176345</v>
+        <v>0.20361214354463722</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.7636328087150313</v>
+        <v>0.7195505062855261</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.7684887382014619</v>
+        <v>0.7650703218428443</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.8639504925608986</v>
+        <v>0.8663006740900815</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.26944756749217685</v>
+        <v>0.265701318990981</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>3.319444299302395</v>
+        <v>3.256592899816822</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.02014171588541225</v>
+        <v>0.022228889894786368</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.042813510793715134</v>
+        <v>0.04667935205332693</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.20327597061754182</v>
+        <v>0.19889130937060395</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.766502742782173</v>
+        <v>0.7544782864801163</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.7737745675294191</v>
+        <v>0.7875172879856783</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.8704447112263614</v>
+        <v>0.8888478786412976</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.2753838759933165</v>
+        <v>0.29168801095219465</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>3.4203694919670165</v>
+        <v>3.7062652322161562</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.0199102466559467</v>
+        <v>0.020539689808750986</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.04396047349064678</v>
+        <v>0.065021872575855</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.21701562978112843</v>
+        <v>0.21072122120977696</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.778356469632754</v>
+        <v>0.7191386975569216</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.7866395135778711</v>
+        <v>0.7650227091765156</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.8658198043428028</v>
+        <v>0.8742609895319616</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.2906070393649933</v>
+        <v>0.26564964258802576</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>3.68690345044266</v>
+        <v>3.2557304005654</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.018761436200893752</v>
+        <v>0.02260256948727642</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.045624269929509846</v>
+        <v>0.06814870596521751</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.21072122120977696</v>
+        <v>0.18790923704438528</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.7757961362555589</v>
+        <v>0.728936466654282</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.7848302056674616</v>
+        <v>0.7713962158827571</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.8652413172896138</v>
+        <v>0.8742822805585095</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.28839649299528874</v>
+        <v>0.2726908797824786</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>3.6474924749638906</v>
+        <v>3.3743807822845766</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.019004672783090565</v>
+        <v>0.021765495266459337</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.046546945368153694</v>
+        <v>0.0667034555914586</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.21486118638143178</v>
+        <v>0.19789686563176</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.7763028085249296</v>
+        <v>0.7408850042506437</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.7875060535845773</v>
+        <v>0.7886062785381862</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.845769733794842</v>
+        <v>0.899821684248788</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.2916741403619255</v>
+        <v>0.29303693418803367</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>3.706016415380672</v>
+        <v>3.730509463974974</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.01882883348812224</v>
+        <v>0.02101132767979868</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.03886496086381981</v>
+        <v>0.07554860747045403</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.21701562978112843</v>
+        <v>0.19889130937060395</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.7768352490180405</v>
+        <v>0.7514428602074746</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.786810484588525</v>
+        <v>0.7955216030360335</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8452060951225329</v>
+        <v>0.9029759907701737</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.29081714864490005</v>
+        <v>0.3018109875967967</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>3.690662193541319</v>
+        <v>3.890492173489707</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.018756871810008534</v>
+        <v>0.020035700045608337</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.03902137543940246</v>
+        <v>0.07343589254764545</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.21701562978112843</v>
+        <v>0.19889130937060395</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.789565710464451</v>
+        <v>0.7326948210992292</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.7965694377438126</v>
+        <v>0.7851159870448065</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.8989616602148006</v>
+        <v>0.8683575850663368</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.3031726981617123</v>
+        <v>0.2887440851580696</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>3.915682230385147</v>
+        <v>3.6536733293812547</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.017998473773626837</v>
+        <v>0.02132132426559095</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.05304756837088151</v>
+        <v>0.06596445308931857</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.21701562978112843</v>
+        <v>0.20146977122049023</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.7928730751344499</v>
+        <v>0.7281090110131525</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.7999421756986584</v>
+        <v>0.7820814645956075</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.9012118932503074</v>
+        <v>0.8670645602484265</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.3076153363705376</v>
+        <v>0.2850828199157143</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>3.998554810301884</v>
+        <v>3.5888707821218375</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.017774232144370156</v>
+        <v>0.021749488018804476</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.05202865533608782</v>
+        <v>0.06726540675465899</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.21072122120977696</v>
+        <v>0.20467475496596163</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>331.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.711919377807216</v>
+        <v>0.6686806013218614</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.7252640673594646</v>
+        <v>0.6921251076937464</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.7107990802088563</v>
+        <v>0.7215911378817476</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.6187474860554787</v>
+        <v>0.6356987750035014</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.093655589123867</v>
+        <v>0.16314199395770393</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.1986061055130717</v>
+        <v>0.370054591903329</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>331.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.6667832344448537</v>
+        <v>0.6507778220868679</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6738191140245288</v>
+        <v>0.671375297536674</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.6448031745880741</v>
+        <v>0.7021715333485472</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.5522512227425643</v>
+        <v>0.5086895016501944</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>3.5649546827794563</v>
+        <v>0.5619335347432024</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.3065725163053021</v>
+        <v>1.3274267228965566</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>331.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.6682230893250001</v>
+        <v>0.6565017469364954</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.6935196141713001</v>
+        <v>0.6759577440418306</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.6754549602186348</v>
+        <v>0.7073500535679264</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.5812604479549769</v>
+        <v>0.5070488710897966</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.3353474320241694</v>
+        <v>0.5921450151057401</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>1.0324675283547768</v>
+        <v>1.396900873947098</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>331.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.6417548862850049</v>
+        <v>0.4232441363555965</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.6577454552551716</v>
+        <v>0.5181526087414221</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.6274627448981631</v>
+        <v>0.4556735389692595</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.524515464886882</v>
+        <v>0.39423019628932016</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>3.5770392749244713</v>
+        <v>0.945619335347432</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.277764973990067</v>
+        <v>0.227110626069095</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>331.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.5527846718826376</v>
+        <v>0.6439061722204991</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.5660056365513411</v>
+        <v>0.6762715508846701</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.5386015412708081</v>
+        <v>0.6439127646642708</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.4251946454088051</v>
+        <v>0.5163842080512466</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>1.755287009063444</v>
+        <v>3.093655589123867</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.2175213864516252</v>
+        <v>1.1986061055130717</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>331.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.5652598608348117</v>
+        <v>0.6016213749384943</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.5793271202825354</v>
+        <v>0.633513381056385</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.5525967436124521</v>
+        <v>0.6011501059300612</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.4503757532041532</v>
+        <v>0.4501089584116022</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>1.540785498489426</v>
+        <v>3.5649546827794563</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.1257312717846641</v>
+        <v>1.3065725163053021</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>331.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.5802028969136728</v>
+        <v>0.5677235208193303</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.5595749329185221</v>
+        <v>0.5099612231637904</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.5827626067685941</v>
+        <v>0.3984671320691229</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.4446569351618369</v>
+        <v>0.38804084172197073</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>0.5619335347432024</v>
+        <v>1.0845921450151057</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.3274267228965566</v>
+        <v>1.4518863591262576</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>331.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.5859090895470205</v>
+        <v>0.5025838337227654</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.5647394485209017</v>
+        <v>0.45668046363620535</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.5882795832585804</v>
+        <v>0.33651077008138547</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.4433560416436631</v>
+        <v>0.3180076029127935</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>0.5921450151057401</v>
+        <v>2.268882175226586</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.396900873947098</v>
+        <v>1.3959568092702515</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>331.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.514203901078965</v>
+        <v>0.5705810902335529</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.49028081958918707</v>
+        <v>0.5360297055627358</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.37814331606516643</v>
+        <v>0.5060878670178945</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.35133198033585816</v>
+        <v>0.4246111122162155</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.0845921450151057</v>
+        <v>1.755287009063444</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.4518863591262576</v>
+        <v>1.2175213864516252</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>331.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.47905276643819156</v>
+        <v>0.5890391369097504</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.46350801200028374</v>
+        <v>0.5582628723622228</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.34359879564722723</v>
+        <v>0.5302324342806575</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.3176924821687709</v>
+        <v>0.4590807351584495</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.268882175226586</v>
+        <v>1.540785498489426</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.3959568092702515</v>
+        <v>1.1257312717846641</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.054380664652567974</v>
+        <v>0.8368580060422961</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.09667673716012085</v>
+        <v>0.16314199395770393</v>
       </c>
       <c r="D39" t="n" s="799">
-        <v>0.00906344410876133</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.42900302114803623</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.36253776435045315</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.04833836858006042</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.054380664652567974</v>
+        <v>0.8368580060422961</v>
       </c>
       <c r="C40" t="n" s="798">
-        <v>0.012084592145015106</v>
+        <v>0.00906344410876133</v>
       </c>
       <c r="D40" t="n" s="799">
-        <v>0.0634441087613293</v>
+        <v>0.006042296072507553</v>
       </c>
       <c r="E40" t="n" s="800">
-        <v>0.3564954682779456</v>
+        <v>0.06646525679758308</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.21148036253776434</v>
+        <v>0.06646525679758308</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.3021148036253776</v>
+        <v>0.015105740181268883</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.021148036253776436</v>
+        <v>0.8368580060422961</v>
       </c>
       <c r="C41" t="n" s="798">
-        <v>0.06042296072507553</v>
+        <v>0.0030211480362537764</v>
       </c>
       <c r="D41" t="n" s="799">
-        <v>0.030211480362537766</v>
+        <v>0.00906344410876133</v>
       </c>
       <c r="E41" t="n" s="800">
-        <v>0.4199395770392749</v>
+        <v>0.06948640483383686</v>
       </c>
       <c r="F41" t="n" s="801">
-        <v>0.3867069486404834</v>
+        <v>0.045317220543806644</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.08157099697885196</v>
+        <v>0.03625377643504532</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.021148036253776436</v>
+        <v>0.054380664652567974</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.045317220543806644</v>
+        <v>0.945619335347432</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.07250755287009064</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.41389728096676737</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.09063444108761329</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.3564954682779456</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.22658610271903323</v>
+        <v>0.054380664652567974</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.14501510574018128</v>
+        <v>0.09667673716012085</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.3413897280966767</v>
+        <v>0.00906344410876133</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.22054380664652568</v>
+        <v>0.42900302114803623</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.06646525679758308</v>
+        <v>0.36253776435045315</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.04833836858006042</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.2628398791540785</v>
+        <v>0.054380664652567974</v>
       </c>
       <c r="C44" t="n" s="798">
-        <v>0.14803625377643503</v>
+        <v>0.012084592145015106</v>
       </c>
       <c r="D44" t="n" s="799">
-        <v>0.40483383685800606</v>
+        <v>0.0634441087613293</v>
       </c>
       <c r="E44" t="n" s="800">
-        <v>0.1540785498489426</v>
+        <v>0.3564954682779456</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.030211480362537766</v>
+        <v>0.21148036253776434</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.3021148036253776</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.8368580060422961</v>
+        <v>0.5861027190332326</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.00906344410876133</v>
+        <v>0.09063444108761329</v>
       </c>
       <c r="D45" t="n" s="799">
-        <v>0.006042296072507553</v>
+        <v>0.054380664652567974</v>
       </c>
       <c r="E45" t="n" s="800">
-        <v>0.06646525679758308</v>
+        <v>0.1903323262839879</v>
       </c>
       <c r="F45" t="n" s="801">
-        <v>0.06646525679758308</v>
+        <v>0.07854984894259819</v>
       </c>
       <c r="G45" t="n" s="802">
-        <v>0.015105740181268883</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.8368580060422961</v>
+        <v>0.2084592145015106</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.0030211480362537764</v>
+        <v>0.1027190332326284</v>
       </c>
       <c r="D46" t="n" s="799">
-        <v>0.00906344410876133</v>
+        <v>0.045317220543806644</v>
       </c>
       <c r="E46" t="n" s="800">
-        <v>0.06948640483383686</v>
+        <v>0.4984894259818731</v>
       </c>
       <c r="F46" t="n" s="801">
-        <v>0.045317220543806644</v>
+        <v>0.14501510574018128</v>
       </c>
       <c r="G46" t="n" s="802">
-        <v>0.03625377643504532</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.5861027190332326</v>
+        <v>0.22658610271903323</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.09063444108761329</v>
+        <v>0.14501510574018128</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.054380664652567974</v>
+        <v>0.3413897280966767</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.1903323262839879</v>
+        <v>0.22054380664652568</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.07854984894259819</v>
+        <v>0.06646525679758308</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.2084592145015106</v>
+        <v>0.2628398791540785</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.1027190332326284</v>
+        <v>0.14803625377643503</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.045317220543806644</v>
+        <v>0.40483383685800606</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.4984894259818731</v>
+        <v>0.1540785498489426</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.14501510574018128</v>
+        <v>0.030211480362537766</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
